--- a/wwwroot/export/excel/test.xlsx
+++ b/wwwroot/export/excel/test.xlsx
@@ -49,34 +49,184 @@
     <x:t>Cập nhật lúc</x:t>
   </x:si>
   <x:si>
+    <x:t>Vũ Thị Hương</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0982372812</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nữ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Số 12/53/63/182 đường Xuân Thủy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Diên Sơn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Diên Khánh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Khánh Hòa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Phạm Văn Quỳnh Thắng</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0982723182</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Số 23/45 đường Phan Trứ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trung Sơn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A Lưới</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thừa Thiên Huế</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tống Trần Đan Vi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0762832145</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sô 78, Ấp 9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vĩnh Trung</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vị Thuỷ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hậu Giang</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nguyễn Hải An</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0982738123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Số 132 đường Thống Trực</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nam Sơn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kiến An</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hải Phòng</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Đỗ Minh Hùng</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0276124382</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90 Hoàng Hoa Thám</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dịch Vọng Hậu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cầu Giấy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hà Nội</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Phùng Sỹ Liên</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0817634212</x:t>
+  </x:si>
+  <x:si>
+    <x:t>102 Trần Thành Ngọ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ngũ Chỉ Sơn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sa Pa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lào Cai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vũ Kim Phụng</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0726837172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>197 đường Phan Quý Châu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Diên Lâm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nguyễn Thị Hồng Nhung</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0972837124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Số 61, Tổ 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thống Nhất</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hạ Lang</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cao Bằng</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Phạm Ánh Hồng</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0982736333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Khác</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Số 172, đường Cách mạng tháng 8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quán Thánh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ba Đình</x:t>
+  </x:si>
+  <x:si>
     <x:t>Trần Đắc Nhân</x:t>
   </x:si>
   <x:si>
     <x:t>0582912732</x:t>
   </x:si>
   <x:si>
-    <x:t>Khác</x:t>
-  </x:si>
-  <x:si>
     <x:t>333 đường Lê Duẩn</x:t>
   </x:si>
   <x:si>
     <x:t>Lãm Hà</x:t>
   </x:si>
   <x:si>
-    <x:t>Kiến An</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hải Phòng</x:t>
-  </x:si>
-  <x:si>
     <x:t>Nguyễn Văn Việt</x:t>
   </x:si>
   <x:si>
     <x:t>0766479036</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nam</x:t>
   </x:si>
   <x:si>
     <x:t>202 đường Hoàng Công Khanh</x:t>
@@ -444,19 +594,19 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K3"/>
+  <x:dimension ref="A1:K12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.996339" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="15.567768" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="22.853482" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="10.996339" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="12.710625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="8.424911" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="28.424911" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="11.139196" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="32.567768" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="13.996339" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="12.567768" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="15.139196" style="0" customWidth="1"/>
     <x:col min="10" max="11" width="13.282054" style="0" customWidth="1"/>
@@ -505,7 +655,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C2" s="1">
-        <x:v>36546</x:v>
+        <x:v>38840</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>12</x:v>
@@ -526,10 +676,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J2" s="2">
-        <x:v>45507.3469675926</x:v>
+        <x:v>45512.0708912037</x:v>
       </x:c>
       <x:c r="K2" s="2">
-        <x:v>45507.3469675926</x:v>
+        <x:v>45512.0708912037</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:11">
@@ -540,7 +690,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C3" s="1">
-        <x:v>37544</x:v>
+        <x:v>35719</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>19</x:v>
@@ -552,18 +702,333 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J3" s="2">
+        <x:v>45512.0698032407</x:v>
+      </x:c>
+      <x:c r="K3" s="2">
+        <x:v>45512.0698032407</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:11">
+      <x:c r="A4" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C4" s="1">
+        <x:v>36742</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="J4" s="2">
+        <x:v>45512.0687037037</x:v>
+      </x:c>
+      <x:c r="K4" s="2">
+        <x:v>45512.0687037037</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:11">
+      <x:c r="A5" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C5" s="1">
+        <x:v>37266</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="J5" s="2">
+        <x:v>45512.0680324074</x:v>
+      </x:c>
+      <x:c r="K5" s="2">
+        <x:v>45512.0680324074</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:11">
+      <x:c r="A6" s="0">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C6" s="1">
+        <x:v>35404</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="J6" s="2">
+        <x:v>45512.0654398148</x:v>
+      </x:c>
+      <x:c r="K6" s="2">
+        <x:v>45512.0654398148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:11">
+      <x:c r="A7" s="0">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C7" s="1">
+        <x:v>32555</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="J7" s="2">
+        <x:v>45512.0649305556</x:v>
+      </x:c>
+      <x:c r="K7" s="2">
+        <x:v>45512.0649305556</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:11">
+      <x:c r="A8" s="0">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C8" s="1">
+        <x:v>34808</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="I3" s="0" t="s">
+      <x:c r="I8" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="J3" s="2">
+      <x:c r="J8" s="2">
+        <x:v>45512.0636458333</x:v>
+      </x:c>
+      <x:c r="K8" s="2">
+        <x:v>45512.0636458333</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:11">
+      <x:c r="A9" s="0">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C9" s="1">
+        <x:v>45508</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="J9" s="2">
+        <x:v>45512.0628125</x:v>
+      </x:c>
+      <x:c r="K9" s="2">
+        <x:v>45512.0628125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:11">
+      <x:c r="A10" s="0">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C10" s="1">
+        <x:v>45525</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="J10" s="2">
+        <x:v>45511.030162037</x:v>
+      </x:c>
+      <x:c r="K10" s="2">
+        <x:v>45511.030162037</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:11">
+      <x:c r="A11" s="0">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C11" s="1">
+        <x:v>36546</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="J11" s="2">
+        <x:v>45507.3469675926</x:v>
+      </x:c>
+      <x:c r="K11" s="2">
+        <x:v>45507.3469675926</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:11">
+      <x:c r="A12" s="0">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C12" s="1">
+        <x:v>37544</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="J12" s="2">
         <x:v>45507.2967708333</x:v>
       </x:c>
-      <x:c r="K3" s="2">
+      <x:c r="K12" s="2">
         <x:v>45507.2967708333</x:v>
       </x:c>
     </x:row>
